--- a/RB_dz_gr_1_2025_26.xlsx
+++ b/RB_dz_gr_1_2025_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dyda\2025-2026_s2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B58F908-5242-4C29-85D6-8D21C74B2255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA1159-9A8B-4EE2-BC04-849B324D7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Liczby zesp.</t>
   </si>
   <si>
-    <t>całka nieozn.</t>
-  </si>
-  <si>
     <t>całka oznacz.</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Działy</t>
+  </si>
+  <si>
+    <t>dupa</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -1194,27 +1194,27 @@
       <c r="B2" s="37"/>
       <c r="C2" s="35"/>
       <c r="D2" s="39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="39" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="40"/>
       <c r="L2" s="39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="35"/>
@@ -1228,40 +1228,40 @@
       <c r="B3" s="38"/>
       <c r="C3" s="36"/>
       <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="L3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="20">
         <v>10</v>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="20">
         <v>10</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="T6" s="1"/>
       <c r="V6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>6</v>
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="26">
@@ -1508,10 +1508,10 @@
         <v>5</v>
       </c>
       <c r="T7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="W7" s="4">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="26">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W8" s="2">
         <v>3</v>
@@ -1584,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1637,13 +1637,13 @@
         <v>5</v>
       </c>
       <c r="T9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1651,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="26">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W10" s="5">
         <v>4</v>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="26">
@@ -1760,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="T11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="W11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20">
         <v>3</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="S12" s="1"/>
       <c r="V12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W12" s="7">
         <v>5</v>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="26">
@@ -1867,7 +1867,7 @@
         <v>4.5</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="26">
@@ -1933,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="26">
@@ -1984,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1992,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="20">
         <v>6</v>
@@ -2048,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="26">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="20">
         <v>10</v>
@@ -2162,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="20">
         <v>10</v>
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="20">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="26">
@@ -2341,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="26">
@@ -2398,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="26">
@@ -2455,7 +2455,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="26">
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="26"/>
@@ -2549,7 +2549,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="26">
@@ -2604,7 +2604,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="26">
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="20">
         <v>10</v>
@@ -2716,7 +2716,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="26">
@@ -2773,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="22">
@@ -2832,7 +2832,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="22">
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -2994,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3010,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3018,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3034,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3042,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3050,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3066,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3074,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3082,7 +3082,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3090,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3098,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3106,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3114,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3122,7 +3122,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3130,7 +3130,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3138,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3146,7 +3146,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3162,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3170,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3178,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3186,7 +3186,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3194,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3202,7 +3202,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/RB_dz_gr_1_2025_26.xlsx
+++ b/RB_dz_gr_1_2025_26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dyda\2025-2026_s2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA1159-9A8B-4EE2-BC04-849B324D7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC50606-E8FF-4DAA-AD48-2E7B6AFABD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <t>Działy</t>
   </si>
   <si>
-    <t>dupa</t>
+    <t>całka nieozn.</t>
   </si>
 </sst>
 </file>
@@ -1137,19 +1137,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="6.69140625" customWidth="1"/>
-    <col min="20" max="20" width="20.69140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1189,12 +1189,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="35"/>
       <c r="D2" s="39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="39" t="s">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K2" s="40"/>
       <c r="L2" s="39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="39" t="s">
@@ -1223,7 +1223,7 @@
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="36"/>
@@ -1269,7 +1269,7 @@
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>6</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>8</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>10</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>14</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>15</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>17</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>18</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>19</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>20</v>
       </c>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>22</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>23</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>24</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>25</v>
       </c>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>26</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>27</v>
       </c>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>28</v>
       </c>
@@ -2882,9 +2882,9 @@
       </c>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:S31">
     <sortCondition ref="B4:B31"/>
@@ -2976,12 +2976,12 @@
       <selection activeCell="B1" sqref="B1:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
         <v>1</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>2</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>3</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>4</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>8</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>9</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>10</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>11</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>12</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>20</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>21</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>22</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>23</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>24</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>25</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>26</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>27</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>28</v>
       </c>

--- a/RB_dz_gr_1_2025_26.xlsx
+++ b/RB_dz_gr_1_2025_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC50606-E8FF-4DAA-AD48-2E7B6AFABD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06E5D7D-4633-460B-93AA-DBA127162973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,21 +63,9 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>Liczby zesp.</t>
-  </si>
-  <si>
-    <t>całka oznacz.</t>
-  </si>
-  <si>
-    <t>geometria an.</t>
-  </si>
-  <si>
     <t>f(x,y)</t>
   </si>
   <si>
-    <t>równ. róż.</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -300,7 +288,19 @@
     <t>Działy</t>
   </si>
   <si>
-    <t>całka nieozn.</t>
+    <t>Liczby_zesp.</t>
+  </si>
+  <si>
+    <t>całka_nieozn.</t>
+  </si>
+  <si>
+    <t>całka_oznacz.</t>
+  </si>
+  <si>
+    <t>geometria_an.</t>
+  </si>
+  <si>
+    <t>równ._róż.</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -1194,27 +1194,27 @@
       <c r="B2" s="37"/>
       <c r="C2" s="35"/>
       <c r="D2" s="39" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="39" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="39" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="K2" s="40"/>
       <c r="L2" s="39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="39" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="35"/>
@@ -1228,40 +1228,40 @@
       <c r="B3" s="38"/>
       <c r="C3" s="36"/>
       <c r="D3" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="20">
         <v>10</v>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="20">
         <v>10</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="T6" s="1"/>
       <c r="V6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>6</v>
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="26">
@@ -1508,10 +1508,10 @@
         <v>5</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W7" s="4">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="26">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W8" s="2">
         <v>3</v>
@@ -1584,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1637,13 +1637,13 @@
         <v>5</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1651,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="26">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="W10" s="5">
         <v>4</v>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="26">
@@ -1760,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="20">
         <v>3</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="S12" s="1"/>
       <c r="V12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W12" s="7">
         <v>5</v>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="26">
@@ -1867,7 +1867,7 @@
         <v>4.5</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="26">
@@ -1933,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="26">
@@ -1984,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1992,7 +1992,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="20">
         <v>6</v>
@@ -2048,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="26">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="20">
         <v>10</v>
@@ -2162,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="20">
         <v>10</v>
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="20">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="26">
@@ -2341,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="26">
@@ -2398,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="26">
@@ -2455,7 +2455,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="26">
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="26"/>
@@ -2549,7 +2549,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="26">
@@ -2604,7 +2604,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="26">
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" s="20">
         <v>10</v>
@@ -2716,7 +2716,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="26">
@@ -2773,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="22">
@@ -2832,7 +2832,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="22">
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2994,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3010,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3018,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3034,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3042,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3050,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3066,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3074,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3082,7 +3082,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3090,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3098,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3106,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3114,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3122,7 +3122,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3130,7 +3130,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3138,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3146,7 +3146,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3162,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3170,7 +3170,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3178,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3186,7 +3186,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3194,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3202,7 +3202,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
